--- a/导表工具/G-功能入口.xlsx
+++ b/导表工具/G-功能入口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="7860"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="功能入口" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="221">
   <si>
     <t>导出类型</t>
   </si>
@@ -252,7 +252,7 @@
     <t>"TreasureIconRule"</t>
   </si>
   <si>
-    <t>"zjmxunbao"</t>
+    <t>"new_zjmxunbao"</t>
   </si>
   <si>
     <t>商城</t>
@@ -261,7 +261,7 @@
     <t>"MallIconRule"</t>
   </si>
   <si>
-    <t>"zjmshangcheng"</t>
+    <t>"new_zjmshangcheng"</t>
   </si>
   <si>
     <t>行会</t>
@@ -270,7 +270,7 @@
     <t>"GuildIconRule"</t>
   </si>
   <si>
-    <t>"zjmhanghui"</t>
+    <t>"new_zjmhanghui"</t>
   </si>
   <si>
     <t>排行榜</t>
@@ -279,7 +279,7 @@
     <t>"RankIconRule"</t>
   </si>
   <si>
-    <t>"zjmpaihang"</t>
+    <t>"new_zjmpaihang"</t>
   </si>
   <si>
     <t>福利</t>
@@ -288,7 +288,7 @@
     <t>"CDkeyIconRule"</t>
   </si>
   <si>
-    <t>"zjmfuli"</t>
+    <t>"new_zjmfuli"</t>
   </si>
   <si>
     <t>巅峰赛季</t>
@@ -300,7 +300,7 @@
     <t>"ActBtnStatusSkin"</t>
   </si>
   <si>
-    <t>"zjmdianfengsaiji"</t>
+    <t>"new_zjmdianfengsaiji"</t>
   </si>
   <si>
     <t>特戒</t>
@@ -327,7 +327,7 @@
     <t>"ActivityIconRule"</t>
   </si>
   <si>
-    <t>"zjmkaifu"</t>
+    <t>"new_zjmkaifu"</t>
   </si>
   <si>
     <t>礼包</t>
@@ -336,7 +336,7 @@
     <t>"VipGiftIconRule"</t>
   </si>
   <si>
-    <t>"zjmviplibao"</t>
+    <t>"new_zjmmeirilibao"</t>
   </si>
   <si>
     <t>宝箱</t>
@@ -345,7 +345,7 @@
     <t>"BoxIconRule"</t>
   </si>
   <si>
-    <t>"zjmbaoxiang"</t>
+    <t>"new_zjmbaoxiang"</t>
   </si>
   <si>
     <t>神兵</t>
@@ -354,7 +354,7 @@
     <t>"GodWeaponIconRule"</t>
   </si>
   <si>
-    <t>"zjmgodweapon"</t>
+    <t>"new_zjmshenbing"</t>
   </si>
   <si>
     <t>跨服</t>
@@ -441,7 +441,7 @@
     <t>"CelebrationIconRule"</t>
   </si>
   <si>
-    <t>"zjmshuiyuzhengfeng_png"</t>
+    <t>"active_qiyu_icon"</t>
   </si>
   <si>
     <t>元宝转盘</t>
@@ -501,9 +501,6 @@
     <t>"SpringBeginIconRule"</t>
   </si>
   <si>
-    <t>"zjmspringBegin_png"</t>
-  </si>
-  <si>
     <t>春节活动</t>
   </si>
   <si>
@@ -606,7 +603,7 @@
     <t>"BattleIconRule"</t>
   </si>
   <si>
-    <t>"zjmyzbq"</t>
+    <t>"new_zjmxuezhan"</t>
   </si>
   <si>
     <t>泡点</t>
@@ -615,7 +612,7 @@
     <t>"PaoDianIconRule"</t>
   </si>
   <si>
-    <t>"zjmjqpd"</t>
+    <t>"new_zjmjiqingpaodian"</t>
   </si>
   <si>
     <t>无极战场</t>
@@ -648,7 +645,7 @@
     <t>"MaBiIconRule"</t>
   </si>
   <si>
-    <t>"zjmmabi"</t>
+    <t>"new_zjmlingquabi"</t>
   </si>
   <si>
     <t>月卡</t>
@@ -657,7 +654,7 @@
     <t>"MonthCardIconRule"</t>
   </si>
   <si>
-    <t>"zjmyueka"</t>
+    <t>"new_zjmyueka"</t>
   </si>
   <si>
     <t>boss</t>
@@ -669,7 +666,10 @@
     <t>"MainBtn2"</t>
   </si>
   <si>
-    <t>"btn6boss"</t>
+    <t>"new_zjmbossbtn"</t>
+  </si>
+  <si>
+    <t>{x=9,bottom=400,height=80,right=6,width=120}</t>
   </si>
   <si>
     <t>副本</t>
@@ -678,7 +678,10 @@
     <t>"FbBtnIconRule"</t>
   </si>
   <si>
-    <t>"btn6fuben"</t>
+    <t>"new_zjmfuben"</t>
+  </si>
+  <si>
+    <t>{bottom=800,height=100,width=120}</t>
   </si>
   <si>
     <t>竞技</t>
@@ -687,7 +690,10 @@
     <t>"LadderBtnIconRule"</t>
   </si>
   <si>
-    <t>"btn6jingji"</t>
+    <t>"new_zjmjingji"</t>
+  </si>
+  <si>
+    <t>{bottom=800,height=110,width=120}</t>
   </si>
   <si>
     <t>怪物攻城</t>
@@ -702,7 +708,7 @@
     <t>"BtnCityMonster"</t>
   </si>
   <si>
-    <t>{width=90,height=100,x=9,bottom=506,right=6}</t>
+    <t>{width=137,height=152,x=9,bottom=530,right=6}</t>
   </si>
   <si>
     <t>邮件</t>
@@ -714,7 +720,7 @@
     <t>"MainButtonWithoutBGSkin"</t>
   </si>
   <si>
-    <t>"zjmyoujian"</t>
+    <t>"new_zjmyoujiang"</t>
   </si>
   <si>
     <t>{width=68,height=53,x=3,bottom=260}</t>
@@ -726,7 +732,7 @@
     <t>"FriendsIconRule"</t>
   </si>
   <si>
-    <t>"zjmshejiao"</t>
+    <t>"new_zjmhaoyou"</t>
   </si>
   <si>
     <t>{width=68,height=53,x=3,bottom=205}</t>
@@ -741,7 +747,7 @@
     <t>"Btn0Skin"</t>
   </si>
   <si>
-    <t>"zjmgocity"</t>
+    <t>"new_zjmhuichengnormal"</t>
   </si>
   <si>
     <t>{width=62,height=64,x=9,bottom=130}</t>
@@ -786,7 +792,7 @@
     <t>"AuctionIconRule"</t>
   </si>
   <si>
-    <t>"zjmauctionIcon"</t>
+    <t>"new_zjmpaimai"</t>
   </si>
   <si>
     <t>龙抬头活动</t>
@@ -809,12 +815,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,37 +859,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,6 +870,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,7 +892,29 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,8 +927,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,17 +937,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -959,31 +959,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,11 +1003,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -1036,187 +1053,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,30 +1290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1308,41 +1301,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,6 +1323,65 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1376,10 +1393,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1388,146 +1405,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1558,6 +1575,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1631,7 +1651,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1912,19 +1932,20 @@
   <sheetPr/>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R64" sqref="R64"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="7" max="7" width="32.125" customWidth="1"/>
+    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="9" max="9" width="25.75" customWidth="1"/>
+    <col min="10" max="10" width="47.375" customWidth="1"/>
+    <col min="11" max="11" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2653,18 +2674,18 @@
         <v>103</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37">
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2673,18 +2694,18 @@
         <v>104</v>
       </c>
       <c r="I37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38">
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2693,18 +2714,18 @@
         <v>105</v>
       </c>
       <c r="I38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2713,18 +2734,18 @@
         <v>106</v>
       </c>
       <c r="I39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B40">
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -2733,18 +2754,18 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41">
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -2753,18 +2774,18 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B42">
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -2773,18 +2794,18 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43">
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -2793,18 +2814,18 @@
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44">
         <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2813,18 +2834,18 @@
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45">
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -2833,18 +2854,18 @@
         <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B46">
         <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2853,18 +2874,18 @@
         <v>7</v>
       </c>
       <c r="I46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47">
         <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2873,18 +2894,18 @@
         <v>8</v>
       </c>
       <c r="I47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B48">
         <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2893,18 +2914,18 @@
         <v>9</v>
       </c>
       <c r="I48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B49">
         <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -2913,18 +2934,18 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50">
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -2938,13 +2959,13 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B51">
         <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2953,18 +2974,18 @@
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52">
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -2973,38 +2994,38 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B53">
         <v>46</v>
       </c>
       <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
         <v>166</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="I53" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B54">
         <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3013,18 +3034,18 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>171</v>
       </c>
       <c r="B55">
         <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3033,13 +3054,16 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
+        <v>172</v>
+      </c>
+      <c r="I55" t="s">
         <v>173</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -3056,21 +3080,24 @@
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I56" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B57">
         <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3079,21 +3106,24 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I57" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="J57" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B58">
         <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3102,13 +3132,13 @@
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H58" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -3116,13 +3146,13 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B59">
         <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3131,13 +3161,13 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J59" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -3145,13 +3175,13 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B60">
         <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3160,13 +3190,13 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I60" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J60" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -3174,13 +3204,13 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B61">
         <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3189,13 +3219,13 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I61" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J61" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -3203,13 +3233,13 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B62">
         <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3218,13 +3248,13 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H62" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J62" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -3232,13 +3262,13 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B63">
         <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3247,10 +3277,10 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J63" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -3258,13 +3288,13 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B64">
         <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -3273,18 +3303,18 @@
         <v>107</v>
       </c>
       <c r="I64" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B65">
         <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -3293,18 +3323,18 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" customFormat="1" spans="1:9">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B66">
         <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -3313,18 +3343,18 @@
         <v>108</v>
       </c>
       <c r="I66" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:9">
       <c r="A67" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B67">
         <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -3333,7 +3363,7 @@
         <v>109</v>
       </c>
       <c r="I67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/G-功能入口.xlsx
+++ b/导表工具/G-功能入口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="功能入口" sheetId="2" r:id="rId1"/>
@@ -815,10 +815,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -860,41 +860,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -907,21 +876,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,7 +900,80 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,31 +988,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -995,30 +1009,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -1053,6 +1053,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1065,85 +1071,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,85 +1215,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,16 +1290,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1329,16 +1347,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1354,49 +1387,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1405,142 +1405,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1651,7 +1651,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1933,19 +1933,18 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
+      <selection pane="bottomLeft" activeCell="J55" sqref="J55:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="27.875" customWidth="1"/>
-    <col min="7" max="7" width="32.125" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
-    <col min="9" max="9" width="25.75" customWidth="1"/>
-    <col min="10" max="10" width="47.375" customWidth="1"/>
-    <col min="11" max="11" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3137,6 +3136,7 @@
       <c r="H58" t="s">
         <v>186</v>
       </c>
+      <c r="I58"/>
       <c r="J58" t="s">
         <v>187</v>
       </c>
@@ -3253,6 +3253,7 @@
       <c r="H62" t="s">
         <v>204</v>
       </c>
+      <c r="I62"/>
       <c r="J62" t="s">
         <v>205</v>
       </c>
@@ -3279,6 +3280,7 @@
       <c r="H63" t="s">
         <v>208</v>
       </c>
+      <c r="I63"/>
       <c r="J63" t="s">
         <v>209</v>
       </c>
